--- a/database/industries/folad/fasazan/product/monthly.xlsx
+++ b/database/industries/folad/fasazan/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\fasazan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\folad\fasazan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8251C4C3-FBBC-44DC-B442-7411376C88FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA4A58-44E7-46A4-9BDA-C5D19C446612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="91">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 5 منتهی به 1398/05</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1398/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1398/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1398/08</t>
@@ -187,6 +178,15 @@
     <t>ماه 6 منتهی به 1402/06</t>
   </si>
   <si>
+    <t>ماه 7 منتهی به 1402/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1402/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1402/09</t>
+  </si>
+  <si>
     <t>شمش</t>
   </si>
   <si>
@@ -196,13 +196,13 @@
     <t>قطعات</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>خدمات</t>
   </si>
   <si>
     <t>مرحله</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>سایر</t>
@@ -1506,154 +1506,154 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>5048</v>
+        <v>10452</v>
       </c>
       <c r="F12" s="9">
-        <v>11195</v>
+        <v>10969</v>
       </c>
       <c r="G12" s="9">
-        <v>10990</v>
+        <v>13005</v>
       </c>
       <c r="H12" s="9">
-        <v>10452</v>
+        <v>11771</v>
       </c>
       <c r="I12" s="9">
-        <v>10969</v>
+        <v>10426</v>
       </c>
       <c r="J12" s="9">
-        <v>13005</v>
+        <v>12657</v>
       </c>
       <c r="K12" s="9">
-        <v>11771</v>
+        <v>12516</v>
       </c>
       <c r="L12" s="9">
-        <v>10426</v>
+        <v>12589</v>
       </c>
       <c r="M12" s="9">
-        <v>12657</v>
+        <v>13063</v>
       </c>
       <c r="N12" s="9">
-        <v>12516</v>
+        <v>12740</v>
       </c>
       <c r="O12" s="9">
-        <v>12589</v>
+        <v>12594</v>
       </c>
       <c r="P12" s="9">
-        <v>13063</v>
+        <v>9759</v>
       </c>
       <c r="Q12" s="9">
-        <v>12740</v>
+        <v>13098</v>
       </c>
       <c r="R12" s="9">
-        <v>12594</v>
+        <v>13596</v>
       </c>
       <c r="S12" s="9">
-        <v>9759</v>
+        <v>12081</v>
       </c>
       <c r="T12" s="9">
-        <v>13098</v>
+        <v>14345</v>
       </c>
       <c r="U12" s="9">
-        <v>13596</v>
+        <v>15204</v>
       </c>
       <c r="V12" s="9">
-        <v>12081</v>
+        <v>14525</v>
       </c>
       <c r="W12" s="9">
-        <v>14345</v>
+        <v>14944</v>
       </c>
       <c r="X12" s="9">
-        <v>15204</v>
+        <v>13872</v>
       </c>
       <c r="Y12" s="9">
-        <v>14525</v>
+        <v>8918</v>
       </c>
       <c r="Z12" s="9">
-        <v>14944</v>
+        <v>7670</v>
       </c>
       <c r="AA12" s="9">
-        <v>13872</v>
+        <v>13550</v>
       </c>
       <c r="AB12" s="9">
-        <v>8918</v>
+        <v>16977</v>
       </c>
       <c r="AC12" s="9">
-        <v>7670</v>
+        <v>16729</v>
       </c>
       <c r="AD12" s="9">
-        <v>13550</v>
+        <v>19078</v>
       </c>
       <c r="AE12" s="9">
-        <v>16977</v>
+        <v>15777</v>
       </c>
       <c r="AF12" s="9">
-        <v>16729</v>
+        <v>15110</v>
       </c>
       <c r="AG12" s="9">
-        <v>19078</v>
+        <v>15032</v>
       </c>
       <c r="AH12" s="9">
-        <v>15777</v>
+        <v>15815</v>
       </c>
       <c r="AI12" s="9">
-        <v>15110</v>
+        <v>17277</v>
       </c>
       <c r="AJ12" s="9">
-        <v>15032</v>
+        <v>15632</v>
       </c>
       <c r="AK12" s="9">
-        <v>15815</v>
+        <v>14272</v>
       </c>
       <c r="AL12" s="9">
-        <v>17277</v>
+        <v>8485</v>
       </c>
       <c r="AM12" s="9">
-        <v>15632</v>
+        <v>17371</v>
       </c>
       <c r="AN12" s="9">
-        <v>14272</v>
+        <v>17395</v>
       </c>
       <c r="AO12" s="9">
-        <v>8485</v>
+        <v>19662</v>
       </c>
       <c r="AP12" s="9">
-        <v>17371</v>
+        <v>19390</v>
       </c>
       <c r="AQ12" s="9">
-        <v>17395</v>
+        <v>18701</v>
       </c>
       <c r="AR12" s="9">
-        <v>19662</v>
+        <v>18877</v>
       </c>
       <c r="AS12" s="9">
-        <v>19390</v>
+        <v>19710</v>
       </c>
       <c r="AT12" s="9">
-        <v>18701</v>
+        <v>21485</v>
       </c>
       <c r="AU12" s="9">
-        <v>18877</v>
+        <v>21000</v>
       </c>
       <c r="AV12" s="9">
-        <v>19710</v>
+        <v>19838</v>
       </c>
       <c r="AW12" s="9">
-        <v>21485</v>
+        <v>19326</v>
       </c>
       <c r="AX12" s="9">
-        <v>21000</v>
+        <v>16949</v>
       </c>
       <c r="AY12" s="9">
-        <v>19838</v>
+        <v>18627</v>
       </c>
       <c r="AZ12" s="9">
-        <v>19326</v>
+        <v>20829</v>
       </c>
       <c r="BA12" s="9">
-        <v>16949</v>
+        <v>22198</v>
       </c>
       <c r="BB12" s="9">
-        <v>18627</v>
+        <v>21362</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1664,314 +1664,314 @@
         <v>56</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>58</v>
+      <c r="E13" s="13">
+        <v>481</v>
+      </c>
+      <c r="F13" s="13">
+        <v>503</v>
       </c>
       <c r="G13" s="13">
-        <v>477</v>
+        <v>597</v>
       </c>
       <c r="H13" s="13">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="I13" s="13">
-        <v>503</v>
+        <v>385</v>
       </c>
       <c r="J13" s="13">
-        <v>597</v>
+        <v>229</v>
       </c>
       <c r="K13" s="13">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="L13" s="13">
-        <v>385</v>
+        <v>490</v>
       </c>
       <c r="M13" s="13">
-        <v>229</v>
+        <v>330</v>
       </c>
       <c r="N13" s="13">
-        <v>504</v>
+        <v>333</v>
       </c>
       <c r="O13" s="13">
-        <v>490</v>
+        <v>288</v>
       </c>
       <c r="P13" s="13">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="13">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="R13" s="13">
-        <v>288</v>
+        <v>390</v>
       </c>
       <c r="S13" s="13">
-        <v>337</v>
+        <v>424</v>
       </c>
       <c r="T13" s="13">
-        <v>378</v>
+        <v>473</v>
       </c>
       <c r="U13" s="13">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="V13" s="13">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="W13" s="13">
-        <v>473</v>
+        <v>550</v>
       </c>
       <c r="X13" s="13">
-        <v>439</v>
+        <v>502</v>
       </c>
       <c r="Y13" s="13">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="Z13" s="13">
-        <v>550</v>
+        <v>265</v>
       </c>
       <c r="AA13" s="13">
-        <v>502</v>
+        <v>405</v>
       </c>
       <c r="AB13" s="13">
-        <v>433</v>
+        <v>543</v>
       </c>
       <c r="AC13" s="13">
-        <v>265</v>
+        <v>496</v>
       </c>
       <c r="AD13" s="13">
-        <v>405</v>
+        <v>536</v>
       </c>
       <c r="AE13" s="13">
-        <v>543</v>
+        <v>419</v>
       </c>
       <c r="AF13" s="13">
-        <v>496</v>
+        <v>232</v>
       </c>
       <c r="AG13" s="13">
-        <v>536</v>
+        <v>498</v>
       </c>
       <c r="AH13" s="13">
-        <v>419</v>
+        <v>329</v>
       </c>
       <c r="AI13" s="13">
-        <v>232</v>
+        <v>331</v>
       </c>
       <c r="AJ13" s="13">
-        <v>498</v>
+        <v>386</v>
       </c>
       <c r="AK13" s="13">
-        <v>329</v>
+        <v>269</v>
       </c>
       <c r="AL13" s="13">
-        <v>331</v>
+        <v>114</v>
       </c>
       <c r="AM13" s="13">
-        <v>386</v>
+        <v>306</v>
       </c>
       <c r="AN13" s="13">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AO13" s="13">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="AP13" s="13">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="AQ13" s="13">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AR13" s="13">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="AS13" s="13">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="AT13" s="13">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="AU13" s="13">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="AV13" s="13">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="AW13" s="13">
-        <v>203</v>
+        <v>323</v>
       </c>
       <c r="AX13" s="13">
-        <v>238</v>
+        <v>357</v>
       </c>
       <c r="AY13" s="13">
-        <v>365</v>
+        <v>152</v>
       </c>
       <c r="AZ13" s="13">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="BA13" s="13">
-        <v>357</v>
+        <v>51</v>
       </c>
       <c r="BB13" s="13">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="K14" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L14" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -1983,115 +1983,115 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F15" s="13">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G15" s="13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H15" s="13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I15" s="13">
-        <v>30</v>
-      </c>
-      <c r="J15" s="13">
-        <v>23</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="13">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="X15" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="Y15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="AG15" s="13">
+        <v>0</v>
       </c>
       <c r="AH15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ15" s="13">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="AJ15" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AK15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="AM15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="13">
+        <v>0</v>
       </c>
       <c r="AP15" s="13">
         <v>0</v>
@@ -2105,32 +2105,32 @@
       <c r="AS15" s="13">
         <v>0</v>
       </c>
-      <c r="AT15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="13">
-        <v>0</v>
+      <c r="AT15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV15" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AW15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB15" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2142,10 +2142,10 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F16" s="9">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -2153,143 +2153,143 @@
       <c r="H16" s="9">
         <v>0</v>
       </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
+      <c r="I16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB16" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2301,10 +2301,10 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="F17" s="13">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="G17" s="13">
         <v>0</v>
@@ -2312,143 +2312,143 @@
       <c r="H17" s="13">
         <v>0</v>
       </c>
-      <c r="I17" s="13">
-        <v>0</v>
-      </c>
-      <c r="J17" s="13">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13">
-        <v>0</v>
+      <c r="I17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2460,10 +2460,10 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -2471,143 +2471,143 @@
       <c r="H18" s="9">
         <v>0</v>
       </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
+      <c r="I18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2669,44 +2669,44 @@
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
       </c>
       <c r="P20" s="9">
         <v>0</v>
@@ -2729,101 +2729,101 @@
       <c r="V20" s="9">
         <v>0</v>
       </c>
-      <c r="W20" s="9">
-        <v>0</v>
-      </c>
-      <c r="X20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="9">
-        <v>0</v>
+      <c r="W20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -2990,154 +2990,154 @@
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17">
-        <v>5354</v>
+        <v>10947</v>
       </c>
       <c r="F22" s="17">
-        <v>11802</v>
+        <v>11503</v>
       </c>
       <c r="G22" s="17">
-        <v>11467</v>
+        <v>13626</v>
       </c>
       <c r="H22" s="17">
-        <v>10947</v>
+        <v>12311</v>
       </c>
       <c r="I22" s="17">
-        <v>11503</v>
+        <v>10816</v>
       </c>
       <c r="J22" s="17">
-        <v>13626</v>
+        <v>12886</v>
       </c>
       <c r="K22" s="17">
-        <v>12311</v>
+        <v>13020</v>
       </c>
       <c r="L22" s="17">
-        <v>10816</v>
+        <v>13079</v>
       </c>
       <c r="M22" s="17">
-        <v>12886</v>
+        <v>13393</v>
       </c>
       <c r="N22" s="17">
-        <v>13020</v>
+        <v>13073</v>
       </c>
       <c r="O22" s="17">
-        <v>13079</v>
+        <v>12882</v>
       </c>
       <c r="P22" s="17">
-        <v>13393</v>
+        <v>10096</v>
       </c>
       <c r="Q22" s="17">
-        <v>13073</v>
+        <v>13476</v>
       </c>
       <c r="R22" s="17">
-        <v>12882</v>
+        <v>13986</v>
       </c>
       <c r="S22" s="17">
-        <v>10096</v>
+        <v>12505</v>
       </c>
       <c r="T22" s="17">
-        <v>13476</v>
+        <v>14818</v>
       </c>
       <c r="U22" s="17">
-        <v>13986</v>
+        <v>15643</v>
       </c>
       <c r="V22" s="17">
-        <v>12505</v>
+        <v>14989</v>
       </c>
       <c r="W22" s="17">
-        <v>14818</v>
+        <v>15494</v>
       </c>
       <c r="X22" s="17">
-        <v>15643</v>
+        <v>14374</v>
       </c>
       <c r="Y22" s="17">
-        <v>14989</v>
+        <v>9351</v>
       </c>
       <c r="Z22" s="17">
-        <v>15494</v>
+        <v>7935</v>
       </c>
       <c r="AA22" s="17">
-        <v>14374</v>
+        <v>13955</v>
       </c>
       <c r="AB22" s="17">
-        <v>9351</v>
+        <v>17520</v>
       </c>
       <c r="AC22" s="17">
-        <v>7935</v>
+        <v>17225</v>
       </c>
       <c r="AD22" s="17">
-        <v>13955</v>
+        <v>19614</v>
       </c>
       <c r="AE22" s="17">
-        <v>17520</v>
+        <v>16196</v>
       </c>
       <c r="AF22" s="17">
-        <v>17225</v>
+        <v>15342</v>
       </c>
       <c r="AG22" s="17">
-        <v>19614</v>
+        <v>15530</v>
       </c>
       <c r="AH22" s="17">
-        <v>16196</v>
+        <v>16144</v>
       </c>
       <c r="AI22" s="17">
-        <v>15342</v>
+        <v>17608</v>
       </c>
       <c r="AJ22" s="17">
-        <v>15530</v>
+        <v>16018</v>
       </c>
       <c r="AK22" s="17">
-        <v>16144</v>
+        <v>14541</v>
       </c>
       <c r="AL22" s="17">
-        <v>17608</v>
+        <v>8599</v>
       </c>
       <c r="AM22" s="17">
-        <v>16018</v>
+        <v>17677</v>
       </c>
       <c r="AN22" s="17">
-        <v>14541</v>
+        <v>17653</v>
       </c>
       <c r="AO22" s="17">
-        <v>8599</v>
+        <v>19914</v>
       </c>
       <c r="AP22" s="17">
-        <v>17677</v>
+        <v>19730</v>
       </c>
       <c r="AQ22" s="17">
-        <v>17653</v>
+        <v>18952</v>
       </c>
       <c r="AR22" s="17">
-        <v>19914</v>
+        <v>19190</v>
       </c>
       <c r="AS22" s="17">
-        <v>19730</v>
+        <v>19996</v>
       </c>
       <c r="AT22" s="17">
-        <v>18952</v>
+        <v>21688</v>
       </c>
       <c r="AU22" s="17">
-        <v>19190</v>
+        <v>21238</v>
       </c>
       <c r="AV22" s="17">
-        <v>19996</v>
+        <v>20203</v>
       </c>
       <c r="AW22" s="17">
-        <v>21688</v>
+        <v>19649</v>
       </c>
       <c r="AX22" s="17">
-        <v>21238</v>
+        <v>17306</v>
       </c>
       <c r="AY22" s="17">
-        <v>20203</v>
+        <v>18779</v>
       </c>
       <c r="AZ22" s="17">
-        <v>19649</v>
+        <v>21185</v>
       </c>
       <c r="BA22" s="17">
-        <v>17306</v>
+        <v>22249</v>
       </c>
       <c r="BB22" s="17">
-        <v>18779</v>
+        <v>21478</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3638,154 +3638,154 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
-        <v>6424</v>
+        <v>9604</v>
       </c>
       <c r="F30" s="9">
-        <v>10816</v>
+        <v>11165</v>
       </c>
       <c r="G30" s="9">
-        <v>10527</v>
+        <v>11876</v>
       </c>
       <c r="H30" s="9">
-        <v>9604</v>
+        <v>12725</v>
       </c>
       <c r="I30" s="9">
-        <v>11165</v>
+        <v>9911</v>
       </c>
       <c r="J30" s="9">
-        <v>11876</v>
+        <v>8401</v>
       </c>
       <c r="K30" s="9">
-        <v>12725</v>
+        <v>17761</v>
       </c>
       <c r="L30" s="9">
-        <v>9911</v>
+        <v>12753</v>
       </c>
       <c r="M30" s="9">
-        <v>8401</v>
+        <v>13571</v>
       </c>
       <c r="N30" s="9">
-        <v>17761</v>
+        <v>10402</v>
       </c>
       <c r="O30" s="9">
-        <v>12753</v>
+        <v>13020</v>
       </c>
       <c r="P30" s="9">
-        <v>13571</v>
+        <v>10014</v>
       </c>
       <c r="Q30" s="9">
-        <v>10402</v>
+        <v>11777</v>
       </c>
       <c r="R30" s="9">
-        <v>13020</v>
+        <v>16786</v>
       </c>
       <c r="S30" s="9">
-        <v>10014</v>
+        <v>8861</v>
       </c>
       <c r="T30" s="9">
-        <v>11777</v>
+        <v>16817</v>
       </c>
       <c r="U30" s="9">
-        <v>16786</v>
+        <v>12102</v>
       </c>
       <c r="V30" s="9">
-        <v>8861</v>
+        <v>18192</v>
       </c>
       <c r="W30" s="9">
-        <v>16817</v>
+        <v>11171</v>
       </c>
       <c r="X30" s="9">
-        <v>12102</v>
+        <v>17632</v>
       </c>
       <c r="Y30" s="9">
-        <v>18192</v>
+        <v>9829</v>
       </c>
       <c r="Z30" s="9">
-        <v>11171</v>
+        <v>5885</v>
       </c>
       <c r="AA30" s="9">
-        <v>17632</v>
+        <v>14077</v>
       </c>
       <c r="AB30" s="9">
-        <v>9829</v>
+        <v>13955</v>
       </c>
       <c r="AC30" s="9">
-        <v>5885</v>
+        <v>10001</v>
       </c>
       <c r="AD30" s="9">
-        <v>14077</v>
+        <v>20349</v>
       </c>
       <c r="AE30" s="9">
-        <v>13955</v>
+        <v>10298</v>
       </c>
       <c r="AF30" s="9">
-        <v>10001</v>
+        <v>18283</v>
       </c>
       <c r="AG30" s="9">
-        <v>20349</v>
+        <v>24517</v>
       </c>
       <c r="AH30" s="9">
-        <v>10298</v>
+        <v>15151</v>
       </c>
       <c r="AI30" s="9">
-        <v>18283</v>
+        <v>9879</v>
       </c>
       <c r="AJ30" s="9">
-        <v>24517</v>
+        <v>12917</v>
       </c>
       <c r="AK30" s="9">
-        <v>15151</v>
+        <v>13495</v>
       </c>
       <c r="AL30" s="9">
-        <v>9879</v>
+        <v>16681</v>
       </c>
       <c r="AM30" s="9">
-        <v>12917</v>
+        <v>17982</v>
       </c>
       <c r="AN30" s="9">
-        <v>13495</v>
+        <v>17164</v>
       </c>
       <c r="AO30" s="9">
-        <v>16681</v>
+        <v>22043</v>
       </c>
       <c r="AP30" s="9">
-        <v>17982</v>
+        <v>19975</v>
       </c>
       <c r="AQ30" s="9">
-        <v>17164</v>
+        <v>17208</v>
       </c>
       <c r="AR30" s="9">
-        <v>22043</v>
+        <v>23111</v>
       </c>
       <c r="AS30" s="9">
-        <v>19975</v>
+        <v>16485</v>
       </c>
       <c r="AT30" s="9">
-        <v>17208</v>
+        <v>19909</v>
       </c>
       <c r="AU30" s="9">
-        <v>23111</v>
+        <v>23440</v>
       </c>
       <c r="AV30" s="9">
-        <v>16485</v>
+        <v>21426</v>
       </c>
       <c r="AW30" s="9">
-        <v>19909</v>
+        <v>20268</v>
       </c>
       <c r="AX30" s="9">
-        <v>23440</v>
+        <v>17271</v>
       </c>
       <c r="AY30" s="9">
-        <v>21426</v>
+        <v>16320</v>
       </c>
       <c r="AZ30" s="9">
-        <v>20268</v>
+        <v>17732</v>
       </c>
       <c r="BA30" s="9">
-        <v>17271</v>
+        <v>15011</v>
       </c>
       <c r="BB30" s="9">
-        <v>16320</v>
+        <v>23953</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3796,314 +3796,314 @@
         <v>56</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>58</v>
+      <c r="E31" s="13">
+        <v>242</v>
+      </c>
+      <c r="F31" s="13">
+        <v>499</v>
       </c>
       <c r="G31" s="13">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="H31" s="13">
-        <v>242</v>
+        <v>637</v>
       </c>
       <c r="I31" s="13">
-        <v>499</v>
+        <v>429</v>
       </c>
       <c r="J31" s="13">
-        <v>402</v>
+        <v>191</v>
       </c>
       <c r="K31" s="13">
-        <v>637</v>
+        <v>544</v>
       </c>
       <c r="L31" s="13">
-        <v>429</v>
+        <v>502</v>
       </c>
       <c r="M31" s="13">
-        <v>191</v>
+        <v>314</v>
       </c>
       <c r="N31" s="13">
-        <v>544</v>
+        <v>428</v>
       </c>
       <c r="O31" s="13">
-        <v>502</v>
+        <v>165</v>
       </c>
       <c r="P31" s="13">
+        <v>172</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>225</v>
+      </c>
+      <c r="R31" s="13">
+        <v>401</v>
+      </c>
+      <c r="S31" s="13">
+        <v>331</v>
+      </c>
+      <c r="T31" s="13">
+        <v>342</v>
+      </c>
+      <c r="U31" s="13">
+        <v>475</v>
+      </c>
+      <c r="V31" s="13">
+        <v>178</v>
+      </c>
+      <c r="W31" s="13">
+        <v>470</v>
+      </c>
+      <c r="X31" s="13">
+        <v>229</v>
+      </c>
+      <c r="Y31" s="13">
+        <v>643</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>373</v>
+      </c>
+      <c r="AA31" s="13">
+        <v>297</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>367</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>654</v>
+      </c>
+      <c r="AD31" s="13">
+        <v>381</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>403</v>
+      </c>
+      <c r="AF31" s="13">
+        <v>448</v>
+      </c>
+      <c r="AG31" s="13">
+        <v>501</v>
+      </c>
+      <c r="AH31" s="13">
         <v>314</v>
       </c>
-      <c r="Q31" s="13">
-        <v>428</v>
-      </c>
-      <c r="R31" s="13">
-        <v>165</v>
-      </c>
-      <c r="S31" s="13">
-        <v>172</v>
-      </c>
-      <c r="T31" s="13">
-        <v>225</v>
-      </c>
-      <c r="U31" s="13">
-        <v>401</v>
-      </c>
-      <c r="V31" s="13">
-        <v>331</v>
-      </c>
-      <c r="W31" s="13">
-        <v>342</v>
-      </c>
-      <c r="X31" s="13">
-        <v>475</v>
-      </c>
-      <c r="Y31" s="13">
-        <v>178</v>
-      </c>
-      <c r="Z31" s="13">
-        <v>470</v>
-      </c>
-      <c r="AA31" s="13">
-        <v>229</v>
-      </c>
-      <c r="AB31" s="13">
-        <v>643</v>
-      </c>
-      <c r="AC31" s="13">
-        <v>373</v>
-      </c>
-      <c r="AD31" s="13">
-        <v>297</v>
-      </c>
-      <c r="AE31" s="13">
-        <v>367</v>
-      </c>
-      <c r="AF31" s="13">
-        <v>654</v>
-      </c>
-      <c r="AG31" s="13">
-        <v>381</v>
-      </c>
-      <c r="AH31" s="13">
-        <v>403</v>
-      </c>
       <c r="AI31" s="13">
-        <v>448</v>
+        <v>635</v>
       </c>
       <c r="AJ31" s="13">
-        <v>501</v>
+        <v>712</v>
       </c>
       <c r="AK31" s="13">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="AL31" s="13">
-        <v>635</v>
+        <v>119</v>
       </c>
       <c r="AM31" s="13">
-        <v>712</v>
+        <v>104</v>
       </c>
       <c r="AN31" s="13">
-        <v>302</v>
+        <v>149</v>
       </c>
       <c r="AO31" s="13">
-        <v>119</v>
+        <v>487</v>
       </c>
       <c r="AP31" s="13">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="AQ31" s="13">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="AR31" s="13">
-        <v>487</v>
+        <v>213</v>
       </c>
       <c r="AS31" s="13">
-        <v>182</v>
+        <v>322</v>
       </c>
       <c r="AT31" s="13">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c r="AU31" s="13">
-        <v>213</v>
+        <v>380</v>
       </c>
       <c r="AV31" s="13">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="AW31" s="13">
-        <v>251</v>
+        <v>407</v>
       </c>
       <c r="AX31" s="13">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="AY31" s="13">
-        <v>346</v>
+        <v>155</v>
       </c>
       <c r="AZ31" s="13">
-        <v>407</v>
+        <v>109</v>
       </c>
       <c r="BA31" s="13">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="BB31" s="13">
-        <v>155</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I32" s="9">
-        <v>1</v>
-      </c>
-      <c r="J32" s="9">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="K32" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L32" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N32" s="9">
-        <v>0</v>
-      </c>
-      <c r="O32" s="9">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB32" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4115,115 +4115,115 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="F33" s="13">
         <v>30</v>
       </c>
       <c r="G33" s="13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H33" s="13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I33" s="13">
-        <v>30</v>
-      </c>
-      <c r="J33" s="13">
-        <v>23</v>
-      </c>
-      <c r="K33" s="13">
-        <v>0</v>
-      </c>
-      <c r="L33" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="U33" s="13">
+        <v>0</v>
       </c>
       <c r="V33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="13">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="X33" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="Y33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="AG33" s="13">
+        <v>0</v>
       </c>
       <c r="AH33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ33" s="13">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="AJ33" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AK33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="AM33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="13">
+        <v>0</v>
       </c>
       <c r="AP33" s="13">
         <v>0</v>
@@ -4237,32 +4237,32 @@
       <c r="AS33" s="13">
         <v>0</v>
       </c>
-      <c r="AT33" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU33" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV33" s="13">
-        <v>0</v>
+      <c r="AT33" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU33" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV33" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AW33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB33" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4274,10 +4274,10 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F34" s="9">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="G34" s="9">
         <v>0</v>
@@ -4285,143 +4285,143 @@
       <c r="H34" s="9">
         <v>0</v>
       </c>
-      <c r="I34" s="9">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <v>0</v>
+      <c r="I34" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB34" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4433,10 +4433,10 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="F35" s="13">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="G35" s="13">
         <v>0</v>
@@ -4444,143 +4444,143 @@
       <c r="H35" s="13">
         <v>0</v>
       </c>
-      <c r="I35" s="13">
-        <v>0</v>
-      </c>
-      <c r="J35" s="13">
-        <v>0</v>
-      </c>
-      <c r="K35" s="13">
-        <v>0</v>
+      <c r="I35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB35" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4592,10 +4592,10 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="F36" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G36" s="9">
         <v>0</v>
@@ -4603,143 +4603,143 @@
       <c r="H36" s="9">
         <v>0</v>
       </c>
-      <c r="I36" s="9">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9">
-        <v>0</v>
+      <c r="I36" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB36" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4801,44 +4801,44 @@
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0</v>
       </c>
       <c r="P38" s="9">
         <v>0</v>
@@ -4861,101 +4861,101 @@
       <c r="V38" s="9">
         <v>0</v>
       </c>
-      <c r="W38" s="9">
-        <v>0</v>
-      </c>
-      <c r="X38" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="9">
-        <v>0</v>
+      <c r="W38" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="X38" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y38" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="Z38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB38" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5336,154 +5336,154 @@
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
-        <v>6947</v>
+        <v>9860</v>
       </c>
       <c r="F42" s="15">
-        <v>11323</v>
+        <v>11695</v>
       </c>
       <c r="G42" s="15">
-        <v>10949</v>
+        <v>12302</v>
       </c>
       <c r="H42" s="15">
-        <v>9860</v>
+        <v>13372</v>
       </c>
       <c r="I42" s="15">
-        <v>11695</v>
+        <v>10345</v>
       </c>
       <c r="J42" s="15">
-        <v>12302</v>
+        <v>8592</v>
       </c>
       <c r="K42" s="15">
-        <v>13372</v>
+        <v>18305</v>
       </c>
       <c r="L42" s="15">
-        <v>10345</v>
+        <v>13255</v>
       </c>
       <c r="M42" s="15">
-        <v>8592</v>
+        <v>13885</v>
       </c>
       <c r="N42" s="15">
-        <v>18305</v>
+        <v>10830</v>
       </c>
       <c r="O42" s="15">
-        <v>13255</v>
+        <v>13185</v>
       </c>
       <c r="P42" s="15">
-        <v>13885</v>
+        <v>10186</v>
       </c>
       <c r="Q42" s="15">
-        <v>10830</v>
+        <v>12002</v>
       </c>
       <c r="R42" s="15">
-        <v>13185</v>
+        <v>17187</v>
       </c>
       <c r="S42" s="15">
-        <v>10186</v>
+        <v>9192</v>
       </c>
       <c r="T42" s="15">
-        <v>12002</v>
+        <v>17159</v>
       </c>
       <c r="U42" s="15">
-        <v>17187</v>
+        <v>12577</v>
       </c>
       <c r="V42" s="15">
-        <v>9192</v>
+        <v>18370</v>
       </c>
       <c r="W42" s="15">
-        <v>17159</v>
+        <v>11641</v>
       </c>
       <c r="X42" s="15">
-        <v>12577</v>
+        <v>17861</v>
       </c>
       <c r="Y42" s="15">
-        <v>18370</v>
+        <v>10472</v>
       </c>
       <c r="Z42" s="15">
-        <v>11641</v>
+        <v>6258</v>
       </c>
       <c r="AA42" s="15">
-        <v>17861</v>
+        <v>14374</v>
       </c>
       <c r="AB42" s="15">
-        <v>10472</v>
+        <v>14322</v>
       </c>
       <c r="AC42" s="15">
-        <v>6258</v>
+        <v>10655</v>
       </c>
       <c r="AD42" s="15">
-        <v>14374</v>
+        <v>20730</v>
       </c>
       <c r="AE42" s="15">
-        <v>14322</v>
+        <v>10701</v>
       </c>
       <c r="AF42" s="15">
-        <v>10655</v>
+        <v>18731</v>
       </c>
       <c r="AG42" s="15">
-        <v>20730</v>
+        <v>25018</v>
       </c>
       <c r="AH42" s="15">
-        <v>10701</v>
+        <v>15465</v>
       </c>
       <c r="AI42" s="15">
-        <v>18731</v>
+        <v>10514</v>
       </c>
       <c r="AJ42" s="15">
-        <v>25018</v>
+        <v>13629</v>
       </c>
       <c r="AK42" s="15">
-        <v>15465</v>
+        <v>13797</v>
       </c>
       <c r="AL42" s="15">
-        <v>10514</v>
+        <v>16800</v>
       </c>
       <c r="AM42" s="15">
-        <v>13629</v>
+        <v>18086</v>
       </c>
       <c r="AN42" s="15">
-        <v>13797</v>
+        <v>17313</v>
       </c>
       <c r="AO42" s="15">
-        <v>16800</v>
+        <v>22530</v>
       </c>
       <c r="AP42" s="15">
-        <v>18086</v>
+        <v>20157</v>
       </c>
       <c r="AQ42" s="15">
-        <v>17313</v>
+        <v>17376</v>
       </c>
       <c r="AR42" s="15">
-        <v>22530</v>
+        <v>23324</v>
       </c>
       <c r="AS42" s="15">
-        <v>20157</v>
+        <v>16807</v>
       </c>
       <c r="AT42" s="15">
-        <v>17376</v>
+        <v>20160</v>
       </c>
       <c r="AU42" s="15">
-        <v>23324</v>
+        <v>23820</v>
       </c>
       <c r="AV42" s="15">
-        <v>16807</v>
+        <v>21772</v>
       </c>
       <c r="AW42" s="15">
-        <v>20160</v>
+        <v>20675</v>
       </c>
       <c r="AX42" s="15">
-        <v>23820</v>
+        <v>17591</v>
       </c>
       <c r="AY42" s="15">
-        <v>21772</v>
+        <v>16475</v>
       </c>
       <c r="AZ42" s="15">
-        <v>20675</v>
+        <v>17841</v>
       </c>
       <c r="BA42" s="15">
-        <v>17591</v>
+        <v>15146</v>
       </c>
       <c r="BB42" s="15">
-        <v>16475</v>
+        <v>24067</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5984,154 +5984,154 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>222690</v>
+        <v>346471</v>
       </c>
       <c r="F50" s="9">
-        <v>375450</v>
+        <v>440892</v>
       </c>
       <c r="G50" s="9">
-        <v>372372</v>
+        <v>510854</v>
       </c>
       <c r="H50" s="9">
-        <v>346471</v>
+        <v>598460</v>
       </c>
       <c r="I50" s="9">
-        <v>440892</v>
+        <v>506867</v>
       </c>
       <c r="J50" s="9">
-        <v>510854</v>
+        <v>418047</v>
       </c>
       <c r="K50" s="9">
-        <v>598460</v>
+        <v>895561</v>
       </c>
       <c r="L50" s="9">
-        <v>506867</v>
+        <v>731022</v>
       </c>
       <c r="M50" s="9">
-        <v>418047</v>
+        <v>977541</v>
       </c>
       <c r="N50" s="9">
-        <v>895561</v>
+        <v>880141</v>
       </c>
       <c r="O50" s="9">
-        <v>731022</v>
+        <v>1160033</v>
       </c>
       <c r="P50" s="9">
-        <v>977541</v>
+        <v>1055756</v>
       </c>
       <c r="Q50" s="9">
-        <v>880141</v>
+        <v>1218397</v>
       </c>
       <c r="R50" s="9">
-        <v>1160033</v>
+        <v>1740471</v>
       </c>
       <c r="S50" s="9">
-        <v>1055756</v>
+        <v>895751</v>
       </c>
       <c r="T50" s="9">
-        <v>1218397</v>
+        <v>1825613</v>
       </c>
       <c r="U50" s="9">
-        <v>1740471</v>
+        <v>1379490</v>
       </c>
       <c r="V50" s="9">
-        <v>895751</v>
+        <v>2196094</v>
       </c>
       <c r="W50" s="9">
-        <v>1825613</v>
+        <v>1288885</v>
       </c>
       <c r="X50" s="9">
-        <v>1379490</v>
+        <v>2221997</v>
       </c>
       <c r="Y50" s="9">
-        <v>2196094</v>
+        <v>1336374</v>
       </c>
       <c r="Z50" s="9">
-        <v>1288885</v>
+        <v>856660</v>
       </c>
       <c r="AA50" s="9">
-        <v>2221997</v>
+        <v>2114218</v>
       </c>
       <c r="AB50" s="9">
-        <v>1336374</v>
+        <v>2204430</v>
       </c>
       <c r="AC50" s="9">
-        <v>856660</v>
+        <v>1512061</v>
       </c>
       <c r="AD50" s="9">
-        <v>2114218</v>
+        <v>3055323</v>
       </c>
       <c r="AE50" s="9">
-        <v>2204430</v>
+        <v>1412524</v>
       </c>
       <c r="AF50" s="9">
-        <v>1512061</v>
+        <v>2368869</v>
       </c>
       <c r="AG50" s="9">
-        <v>3055323</v>
+        <v>3308860</v>
       </c>
       <c r="AH50" s="9">
-        <v>1412524</v>
+        <v>2310747</v>
       </c>
       <c r="AI50" s="9">
-        <v>2368869</v>
+        <v>1611464</v>
       </c>
       <c r="AJ50" s="9">
-        <v>3308860</v>
+        <v>1925672</v>
       </c>
       <c r="AK50" s="9">
-        <v>2310747</v>
+        <v>1878187</v>
       </c>
       <c r="AL50" s="9">
-        <v>1611464</v>
+        <v>2226661</v>
       </c>
       <c r="AM50" s="9">
-        <v>1925672</v>
+        <v>2374346</v>
       </c>
       <c r="AN50" s="9">
-        <v>1878187</v>
+        <v>2393526</v>
       </c>
       <c r="AO50" s="9">
-        <v>2226661</v>
+        <v>3288223</v>
       </c>
       <c r="AP50" s="9">
-        <v>2374346</v>
+        <v>3144371</v>
       </c>
       <c r="AQ50" s="9">
-        <v>2393526</v>
+        <v>2950908</v>
       </c>
       <c r="AR50" s="9">
-        <v>3288223</v>
+        <v>4548265</v>
       </c>
       <c r="AS50" s="9">
-        <v>3144371</v>
+        <v>3896437</v>
       </c>
       <c r="AT50" s="9">
-        <v>2950908</v>
+        <v>4274120</v>
       </c>
       <c r="AU50" s="9">
-        <v>4548265</v>
+        <v>4879659</v>
       </c>
       <c r="AV50" s="9">
-        <v>3896437</v>
+        <v>4377214</v>
       </c>
       <c r="AW50" s="9">
-        <v>4274120</v>
+        <v>4152697</v>
       </c>
       <c r="AX50" s="9">
-        <v>4879659</v>
+        <v>3493053</v>
       </c>
       <c r="AY50" s="9">
-        <v>4377214</v>
+        <v>3280708</v>
       </c>
       <c r="AZ50" s="9">
-        <v>4152697</v>
+        <v>3475334</v>
       </c>
       <c r="BA50" s="9">
-        <v>3493053</v>
+        <v>2900391</v>
       </c>
       <c r="BB50" s="9">
-        <v>3280709</v>
+        <v>4532897</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -6142,314 +6142,314 @@
         <v>72</v>
       </c>
       <c r="D51" s="13"/>
-      <c r="E51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>58</v>
+      <c r="E51" s="13">
+        <v>27294</v>
+      </c>
+      <c r="F51" s="13">
+        <v>58943</v>
       </c>
       <c r="G51" s="13">
-        <v>42124</v>
+        <v>46460</v>
       </c>
       <c r="H51" s="13">
-        <v>27294</v>
+        <v>74328</v>
       </c>
       <c r="I51" s="13">
-        <v>58943</v>
+        <v>71065</v>
       </c>
       <c r="J51" s="13">
-        <v>46460</v>
+        <v>25760</v>
       </c>
       <c r="K51" s="13">
-        <v>74328</v>
+        <v>67625</v>
       </c>
       <c r="L51" s="13">
-        <v>71065</v>
+        <v>60220</v>
       </c>
       <c r="M51" s="13">
-        <v>25760</v>
+        <v>43900</v>
       </c>
       <c r="N51" s="13">
-        <v>67625</v>
+        <v>57871</v>
       </c>
       <c r="O51" s="13">
-        <v>60220</v>
+        <v>26730</v>
       </c>
       <c r="P51" s="13">
-        <v>43900</v>
+        <v>23432</v>
       </c>
       <c r="Q51" s="13">
-        <v>57871</v>
+        <v>63556</v>
       </c>
       <c r="R51" s="13">
-        <v>26730</v>
+        <v>67723</v>
       </c>
       <c r="S51" s="13">
-        <v>23432</v>
+        <v>65033</v>
       </c>
       <c r="T51" s="13">
-        <v>63556</v>
+        <v>70050</v>
       </c>
       <c r="U51" s="13">
-        <v>67723</v>
+        <v>118546</v>
       </c>
       <c r="V51" s="13">
-        <v>65033</v>
+        <v>39965</v>
       </c>
       <c r="W51" s="13">
-        <v>70050</v>
+        <v>111194</v>
       </c>
       <c r="X51" s="13">
-        <v>118546</v>
+        <v>75799</v>
       </c>
       <c r="Y51" s="13">
-        <v>39965</v>
+        <v>167310</v>
       </c>
       <c r="Z51" s="13">
-        <v>111194</v>
+        <v>116156</v>
       </c>
       <c r="AA51" s="13">
-        <v>75799</v>
+        <v>85090</v>
       </c>
       <c r="AB51" s="13">
-        <v>167310</v>
+        <v>103009</v>
       </c>
       <c r="AC51" s="13">
-        <v>116156</v>
+        <v>150731</v>
       </c>
       <c r="AD51" s="13">
-        <v>85090</v>
+        <v>116018</v>
       </c>
       <c r="AE51" s="13">
-        <v>103009</v>
+        <v>149551</v>
       </c>
       <c r="AF51" s="13">
-        <v>150731</v>
+        <v>173603</v>
       </c>
       <c r="AG51" s="13">
-        <v>116018</v>
+        <v>155847</v>
       </c>
       <c r="AH51" s="13">
-        <v>149551</v>
+        <v>112678</v>
       </c>
       <c r="AI51" s="13">
-        <v>173603</v>
+        <v>237105</v>
       </c>
       <c r="AJ51" s="13">
-        <v>155847</v>
+        <v>311198</v>
       </c>
       <c r="AK51" s="13">
-        <v>112678</v>
+        <v>190066</v>
       </c>
       <c r="AL51" s="13">
-        <v>237105</v>
+        <v>74924</v>
       </c>
       <c r="AM51" s="13">
-        <v>311198</v>
+        <v>65326</v>
       </c>
       <c r="AN51" s="13">
-        <v>190066</v>
+        <v>88403</v>
       </c>
       <c r="AO51" s="13">
-        <v>74924</v>
+        <v>326390</v>
       </c>
       <c r="AP51" s="13">
-        <v>65326</v>
+        <v>125966</v>
       </c>
       <c r="AQ51" s="13">
-        <v>88403</v>
+        <v>187613</v>
       </c>
       <c r="AR51" s="13">
-        <v>326390</v>
+        <v>165988</v>
       </c>
       <c r="AS51" s="13">
-        <v>125966</v>
+        <v>253783</v>
       </c>
       <c r="AT51" s="13">
-        <v>187613</v>
+        <v>213055</v>
       </c>
       <c r="AU51" s="13">
-        <v>165988</v>
+        <v>314611</v>
       </c>
       <c r="AV51" s="13">
-        <v>253783</v>
+        <v>378535</v>
       </c>
       <c r="AW51" s="13">
-        <v>213055</v>
+        <v>613246</v>
       </c>
       <c r="AX51" s="13">
-        <v>314611</v>
+        <v>286829</v>
       </c>
       <c r="AY51" s="13">
-        <v>378535</v>
+        <v>136278</v>
       </c>
       <c r="AZ51" s="13">
-        <v>613246</v>
+        <v>97270</v>
       </c>
       <c r="BA51" s="13">
-        <v>286829</v>
+        <v>150659</v>
       </c>
       <c r="BB51" s="13">
-        <v>141827</v>
+        <v>259896</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" s="9">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G52" s="9">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H52" s="9">
-        <v>3</v>
+        <v>17121</v>
       </c>
       <c r="I52" s="9">
-        <v>32</v>
-      </c>
-      <c r="J52" s="9">
-        <v>57</v>
+        <v>1408</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="K52" s="9">
-        <v>17121</v>
+        <v>1605</v>
       </c>
       <c r="L52" s="9">
-        <v>1408</v>
+        <v>296</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N52" s="9">
-        <v>1605</v>
-      </c>
-      <c r="O52" s="9">
-        <v>296</v>
+        <v>60</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB52" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6461,115 +6461,115 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>11814</v>
+        <v>547</v>
       </c>
       <c r="F53" s="13">
-        <v>4452</v>
+        <v>1467</v>
       </c>
       <c r="G53" s="13">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="H53" s="13">
-        <v>547</v>
+        <v>0</v>
       </c>
       <c r="I53" s="13">
-        <v>1467</v>
-      </c>
-      <c r="J53" s="13">
-        <v>661</v>
-      </c>
-      <c r="K53" s="13">
-        <v>0</v>
-      </c>
-      <c r="L53" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="U53" s="13">
+        <v>941</v>
       </c>
       <c r="V53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="13">
-        <v>941</v>
+        <v>60</v>
+      </c>
+      <c r="X53" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="Y53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="AG53" s="13">
+        <v>0</v>
       </c>
       <c r="AH53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ53" s="13">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="AJ53" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AK53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="AM53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="13">
+        <v>0</v>
       </c>
       <c r="AP53" s="13">
         <v>0</v>
@@ -6583,32 +6583,32 @@
       <c r="AS53" s="13">
         <v>0</v>
       </c>
-      <c r="AT53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV53" s="13">
-        <v>0</v>
+      <c r="AT53" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU53" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV53" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AW53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB53" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6620,10 +6620,10 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
-        <v>4878</v>
+        <v>0</v>
       </c>
       <c r="F54" s="9">
-        <v>23307</v>
+        <v>0</v>
       </c>
       <c r="G54" s="9">
         <v>0</v>
@@ -6631,143 +6631,143 @@
       <c r="H54" s="9">
         <v>0</v>
       </c>
-      <c r="I54" s="9">
-        <v>0</v>
-      </c>
-      <c r="J54" s="9">
-        <v>0</v>
-      </c>
-      <c r="K54" s="9">
-        <v>0</v>
+      <c r="I54" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB54" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -6779,10 +6779,10 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13">
-        <v>15947</v>
+        <v>0</v>
       </c>
       <c r="F55" s="13">
-        <v>18247</v>
+        <v>0</v>
       </c>
       <c r="G55" s="13">
         <v>0</v>
@@ -6790,143 +6790,143 @@
       <c r="H55" s="13">
         <v>0</v>
       </c>
-      <c r="I55" s="13">
-        <v>0</v>
-      </c>
-      <c r="J55" s="13">
-        <v>0</v>
-      </c>
-      <c r="K55" s="13">
-        <v>0</v>
+      <c r="I55" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="L55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB55" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -6938,10 +6938,10 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
-        <v>19480</v>
+        <v>0</v>
       </c>
       <c r="F56" s="9">
-        <v>7768</v>
+        <v>0</v>
       </c>
       <c r="G56" s="9">
         <v>0</v>
@@ -6949,143 +6949,143 @@
       <c r="H56" s="9">
         <v>0</v>
       </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-      <c r="J56" s="9">
-        <v>0</v>
-      </c>
-      <c r="K56" s="9">
-        <v>0</v>
+      <c r="I56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB56" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7147,44 +7147,44 @@
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O58" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="M58" s="9">
+        <v>0</v>
+      </c>
+      <c r="N58" s="9">
+        <v>0</v>
+      </c>
+      <c r="O58" s="9">
+        <v>100</v>
       </c>
       <c r="P58" s="9">
         <v>0</v>
@@ -7193,115 +7193,115 @@
         <v>0</v>
       </c>
       <c r="R58" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="9">
-        <v>0</v>
+        <v>18293</v>
       </c>
       <c r="T58" s="9">
         <v>0</v>
       </c>
       <c r="U58" s="9">
-        <v>0</v>
+        <v>9724</v>
       </c>
       <c r="V58" s="9">
-        <v>18293</v>
+        <v>0</v>
       </c>
       <c r="W58" s="9">
         <v>0</v>
       </c>
       <c r="X58" s="9">
-        <v>9724</v>
+        <v>31</v>
       </c>
       <c r="Y58" s="9">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Z58" s="9">
         <v>0</v>
       </c>
       <c r="AA58" s="9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="9">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="9">
-        <v>0</v>
+        <v>2012</v>
       </c>
       <c r="AD58" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE58" s="9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF58" s="9">
-        <v>2012</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="9">
-        <v>12</v>
+        <v>510</v>
       </c>
       <c r="AH58" s="9">
-        <v>25</v>
+        <v>35814</v>
       </c>
       <c r="AI58" s="9">
         <v>0</v>
       </c>
       <c r="AJ58" s="9">
-        <v>510</v>
+        <v>125</v>
       </c>
       <c r="AK58" s="9">
-        <v>35814</v>
+        <v>3316</v>
       </c>
       <c r="AL58" s="9">
         <v>0</v>
       </c>
       <c r="AM58" s="9">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="9">
-        <v>3316</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AP58" s="9">
         <v>0</v>
       </c>
       <c r="AQ58" s="9">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="AR58" s="9">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="AS58" s="9">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AT58" s="9">
-        <v>1080</v>
+        <v>1500</v>
       </c>
       <c r="AU58" s="9">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AV58" s="9">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="AW58" s="9">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="AX58" s="9">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="AY58" s="9">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AZ58" s="9">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="BA58" s="9">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="BB58" s="9">
-        <v>0</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="15">
         <v>0</v>
@@ -7350,115 +7350,115 @@
         <v>0</v>
       </c>
       <c r="R59" s="15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="15">
-        <v>0</v>
+        <v>18293</v>
       </c>
       <c r="T59" s="15">
         <v>0</v>
       </c>
       <c r="U59" s="15">
-        <v>0</v>
+        <v>9724</v>
       </c>
       <c r="V59" s="15">
-        <v>18293</v>
+        <v>0</v>
       </c>
       <c r="W59" s="15">
         <v>0</v>
       </c>
       <c r="X59" s="15">
-        <v>9724</v>
+        <v>31</v>
       </c>
       <c r="Y59" s="15">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Z59" s="15">
         <v>0</v>
       </c>
       <c r="AA59" s="15">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="15">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="15">
-        <v>0</v>
+        <v>2012</v>
       </c>
       <c r="AD59" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE59" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF59" s="15">
-        <v>2012</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="15">
-        <v>12</v>
+        <v>510</v>
       </c>
       <c r="AH59" s="15">
-        <v>25</v>
+        <v>35814</v>
       </c>
       <c r="AI59" s="15">
         <v>0</v>
       </c>
       <c r="AJ59" s="15">
-        <v>510</v>
+        <v>125</v>
       </c>
       <c r="AK59" s="15">
-        <v>35814</v>
+        <v>3316</v>
       </c>
       <c r="AL59" s="15">
         <v>0</v>
       </c>
       <c r="AM59" s="15">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="15">
-        <v>3316</v>
+        <v>0</v>
       </c>
       <c r="AO59" s="15">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AP59" s="15">
         <v>0</v>
       </c>
       <c r="AQ59" s="15">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="AR59" s="15">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="AS59" s="15">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AT59" s="15">
-        <v>1080</v>
+        <v>1500</v>
       </c>
       <c r="AU59" s="15">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AV59" s="15">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="AW59" s="15">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="AX59" s="15">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="AY59" s="15">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AZ59" s="15">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="BA59" s="15">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="BB59" s="15">
-        <v>0</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7741,37 +7741,37 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N63" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O63" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="M63" s="9">
+        <v>0</v>
+      </c>
+      <c r="N63" s="9">
+        <v>0</v>
+      </c>
+      <c r="O63" s="9">
+        <v>0</v>
       </c>
       <c r="P63" s="9">
         <v>0</v>
@@ -8055,154 +8055,154 @@
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17">
-        <v>274809</v>
+        <v>374315</v>
       </c>
       <c r="F65" s="17">
-        <v>429224</v>
+        <v>501334</v>
       </c>
       <c r="G65" s="17">
-        <v>414496</v>
+        <v>558032</v>
       </c>
       <c r="H65" s="17">
-        <v>374315</v>
+        <v>689909</v>
       </c>
       <c r="I65" s="17">
-        <v>501334</v>
+        <v>579340</v>
       </c>
       <c r="J65" s="17">
-        <v>558032</v>
+        <v>443807</v>
       </c>
       <c r="K65" s="17">
-        <v>689909</v>
+        <v>964791</v>
       </c>
       <c r="L65" s="17">
-        <v>579340</v>
+        <v>791538</v>
       </c>
       <c r="M65" s="17">
-        <v>443807</v>
+        <v>1021441</v>
       </c>
       <c r="N65" s="17">
-        <v>964791</v>
+        <v>938012</v>
       </c>
       <c r="O65" s="17">
-        <v>791538</v>
+        <v>1186863</v>
       </c>
       <c r="P65" s="17">
-        <v>1021441</v>
+        <v>1079188</v>
       </c>
       <c r="Q65" s="17">
-        <v>938012</v>
+        <v>1281953</v>
       </c>
       <c r="R65" s="17">
-        <v>1186863</v>
+        <v>1808194</v>
       </c>
       <c r="S65" s="17">
-        <v>1079188</v>
+        <v>979077</v>
       </c>
       <c r="T65" s="17">
-        <v>1281953</v>
+        <v>1895663</v>
       </c>
       <c r="U65" s="17">
-        <v>1808194</v>
+        <v>1508701</v>
       </c>
       <c r="V65" s="17">
-        <v>979077</v>
+        <v>2236059</v>
       </c>
       <c r="W65" s="17">
-        <v>1895663</v>
+        <v>1400079</v>
       </c>
       <c r="X65" s="17">
-        <v>1508701</v>
+        <v>2297827</v>
       </c>
       <c r="Y65" s="17">
-        <v>2236059</v>
+        <v>1503721</v>
       </c>
       <c r="Z65" s="17">
-        <v>1400079</v>
+        <v>972816</v>
       </c>
       <c r="AA65" s="17">
-        <v>2297827</v>
+        <v>2199308</v>
       </c>
       <c r="AB65" s="17">
-        <v>1503721</v>
+        <v>2307439</v>
       </c>
       <c r="AC65" s="17">
-        <v>972816</v>
+        <v>1664804</v>
       </c>
       <c r="AD65" s="17">
-        <v>2199308</v>
+        <v>3171353</v>
       </c>
       <c r="AE65" s="17">
-        <v>2307439</v>
+        <v>1562100</v>
       </c>
       <c r="AF65" s="17">
-        <v>1664804</v>
+        <v>2542472</v>
       </c>
       <c r="AG65" s="17">
-        <v>3171353</v>
+        <v>3465217</v>
       </c>
       <c r="AH65" s="17">
-        <v>1562100</v>
+        <v>2459239</v>
       </c>
       <c r="AI65" s="17">
-        <v>2542472</v>
+        <v>1848569</v>
       </c>
       <c r="AJ65" s="17">
-        <v>3465217</v>
+        <v>2236995</v>
       </c>
       <c r="AK65" s="17">
-        <v>2459239</v>
+        <v>2071569</v>
       </c>
       <c r="AL65" s="17">
-        <v>1848569</v>
+        <v>2301585</v>
       </c>
       <c r="AM65" s="17">
-        <v>2236995</v>
+        <v>2439672</v>
       </c>
       <c r="AN65" s="17">
-        <v>2071569</v>
+        <v>2481929</v>
       </c>
       <c r="AO65" s="17">
-        <v>2301585</v>
+        <v>3614640</v>
       </c>
       <c r="AP65" s="17">
-        <v>2439672</v>
+        <v>3270337</v>
       </c>
       <c r="AQ65" s="17">
-        <v>2481929</v>
+        <v>3139601</v>
       </c>
       <c r="AR65" s="17">
-        <v>3614640</v>
+        <v>4714439</v>
       </c>
       <c r="AS65" s="17">
-        <v>3270337</v>
+        <v>4150289</v>
       </c>
       <c r="AT65" s="17">
-        <v>3139601</v>
+        <v>4488675</v>
       </c>
       <c r="AU65" s="17">
-        <v>4714439</v>
+        <v>5194270</v>
       </c>
       <c r="AV65" s="17">
-        <v>4150289</v>
+        <v>4755794</v>
       </c>
       <c r="AW65" s="17">
-        <v>4488675</v>
+        <v>4765943</v>
       </c>
       <c r="AX65" s="17">
-        <v>5194270</v>
+        <v>3780582</v>
       </c>
       <c r="AY65" s="17">
-        <v>4755794</v>
+        <v>3416986</v>
       </c>
       <c r="AZ65" s="17">
-        <v>4765943</v>
+        <v>3572677</v>
       </c>
       <c r="BA65" s="17">
-        <v>3780582</v>
+        <v>3051050</v>
       </c>
       <c r="BB65" s="17">
-        <v>3422536</v>
+        <v>4797293</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8703,154 +8703,154 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>34665318</v>
+        <v>36075698</v>
       </c>
       <c r="F73" s="9">
-        <v>34712463</v>
+        <v>39488760</v>
       </c>
       <c r="G73" s="9">
-        <v>35373041</v>
+        <v>43015662</v>
       </c>
       <c r="H73" s="9">
-        <v>36075698</v>
+        <v>47030255</v>
       </c>
       <c r="I73" s="9">
-        <v>39488760</v>
+        <v>51141863</v>
       </c>
       <c r="J73" s="9">
-        <v>43015662</v>
+        <v>49761576</v>
       </c>
       <c r="K73" s="9">
-        <v>47030255</v>
+        <v>50422893</v>
       </c>
       <c r="L73" s="9">
-        <v>51141863</v>
+        <v>57321571</v>
       </c>
       <c r="M73" s="9">
-        <v>49761576</v>
+        <v>72031612</v>
       </c>
       <c r="N73" s="9">
-        <v>50422893</v>
+        <v>84612671</v>
       </c>
       <c r="O73" s="9">
-        <v>57321571</v>
+        <v>89096237</v>
       </c>
       <c r="P73" s="9">
-        <v>72031612</v>
+        <v>105428001</v>
       </c>
       <c r="Q73" s="9">
-        <v>84612671</v>
+        <v>103455634</v>
       </c>
       <c r="R73" s="9">
-        <v>89096237</v>
+        <v>103685869</v>
       </c>
       <c r="S73" s="9">
-        <v>105428001</v>
+        <v>101089155</v>
       </c>
       <c r="T73" s="9">
-        <v>103455634</v>
+        <v>108557591</v>
       </c>
       <c r="U73" s="9">
-        <v>103685869</v>
+        <v>113988597</v>
       </c>
       <c r="V73" s="9">
-        <v>101089155</v>
+        <v>120717568</v>
       </c>
       <c r="W73" s="9">
-        <v>108557591</v>
+        <v>115377764</v>
       </c>
       <c r="X73" s="9">
-        <v>113988597</v>
+        <v>126020701</v>
       </c>
       <c r="Y73" s="9">
-        <v>120717568</v>
+        <v>135962356</v>
       </c>
       <c r="Z73" s="9">
-        <v>115377764</v>
+        <v>145566695</v>
       </c>
       <c r="AA73" s="9">
-        <v>126020701</v>
+        <v>150189529</v>
       </c>
       <c r="AB73" s="9">
-        <v>135962356</v>
+        <v>157967037</v>
       </c>
       <c r="AC73" s="9">
-        <v>145566695</v>
+        <v>151190981</v>
       </c>
       <c r="AD73" s="9">
-        <v>150189529</v>
+        <v>150146101</v>
       </c>
       <c r="AE73" s="9">
-        <v>157967037</v>
+        <v>137164886</v>
       </c>
       <c r="AF73" s="9">
-        <v>151190981</v>
+        <v>129566756</v>
       </c>
       <c r="AG73" s="9">
-        <v>150146101</v>
+        <v>134961863</v>
       </c>
       <c r="AH73" s="9">
-        <v>137164886</v>
+        <v>152514487</v>
       </c>
       <c r="AI73" s="9">
-        <v>129566756</v>
+        <v>163120154</v>
       </c>
       <c r="AJ73" s="9">
-        <v>134961863</v>
+        <v>149080437</v>
       </c>
       <c r="AK73" s="9">
-        <v>152514487</v>
+        <v>139176510</v>
       </c>
       <c r="AL73" s="9">
-        <v>163120154</v>
+        <v>133484863</v>
       </c>
       <c r="AM73" s="9">
-        <v>149080437</v>
+        <v>132040151</v>
       </c>
       <c r="AN73" s="9">
-        <v>139176510</v>
+        <v>139450361</v>
       </c>
       <c r="AO73" s="9">
-        <v>133484863</v>
+        <v>149173116</v>
       </c>
       <c r="AP73" s="9">
-        <v>132040151</v>
+        <v>157415319</v>
       </c>
       <c r="AQ73" s="9">
-        <v>139450361</v>
+        <v>171484658</v>
       </c>
       <c r="AR73" s="9">
-        <v>149173116</v>
+        <v>196800874</v>
       </c>
       <c r="AS73" s="9">
-        <v>157415319</v>
+        <v>236362572</v>
       </c>
       <c r="AT73" s="9">
-        <v>171484658</v>
+        <v>214682807</v>
       </c>
       <c r="AU73" s="9">
-        <v>196800874</v>
+        <v>208176579</v>
       </c>
       <c r="AV73" s="9">
-        <v>236362572</v>
+        <v>204294502</v>
       </c>
       <c r="AW73" s="9">
-        <v>214682807</v>
+        <v>204889333</v>
       </c>
       <c r="AX73" s="9">
-        <v>208176579</v>
+        <v>202249609</v>
       </c>
       <c r="AY73" s="9">
-        <v>204294502</v>
+        <v>201023775</v>
       </c>
       <c r="AZ73" s="9">
-        <v>204889333</v>
+        <v>195992217</v>
       </c>
       <c r="BA73" s="9">
-        <v>202249609</v>
+        <v>193217707</v>
       </c>
       <c r="BB73" s="9">
-        <v>201023836</v>
+        <v>189241306</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -8861,314 +8861,314 @@
         <v>79</v>
       </c>
       <c r="D74" s="13"/>
-      <c r="E74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>58</v>
+      <c r="E74" s="13">
+        <v>112785124</v>
+      </c>
+      <c r="F74" s="13">
+        <v>118122244</v>
       </c>
       <c r="G74" s="13">
-        <v>99819905</v>
+        <v>115572139</v>
       </c>
       <c r="H74" s="13">
-        <v>112785124</v>
+        <v>116684458</v>
       </c>
       <c r="I74" s="13">
-        <v>118122244</v>
+        <v>165652681</v>
       </c>
       <c r="J74" s="13">
-        <v>115572139</v>
+        <v>134869110</v>
       </c>
       <c r="K74" s="13">
-        <v>116684458</v>
+        <v>124310662</v>
       </c>
       <c r="L74" s="13">
-        <v>165652681</v>
+        <v>119960159</v>
       </c>
       <c r="M74" s="13">
-        <v>134869110</v>
+        <v>139808917</v>
       </c>
       <c r="N74" s="13">
-        <v>124310662</v>
+        <v>135212617</v>
       </c>
       <c r="O74" s="13">
-        <v>119960159</v>
+        <v>162000000</v>
       </c>
       <c r="P74" s="13">
-        <v>139808917</v>
+        <v>136232558</v>
       </c>
       <c r="Q74" s="13">
-        <v>135212617</v>
+        <v>282471111</v>
       </c>
       <c r="R74" s="13">
-        <v>162000000</v>
+        <v>168885287</v>
       </c>
       <c r="S74" s="13">
-        <v>136232558</v>
+        <v>196474320</v>
       </c>
       <c r="T74" s="13">
-        <v>282471111</v>
+        <v>204824561</v>
       </c>
       <c r="U74" s="13">
-        <v>168885287</v>
+        <v>249570526</v>
       </c>
       <c r="V74" s="13">
-        <v>196474320</v>
+        <v>224522472</v>
       </c>
       <c r="W74" s="13">
-        <v>204824561</v>
+        <v>236582979</v>
       </c>
       <c r="X74" s="13">
-        <v>249570526</v>
+        <v>331000000</v>
       </c>
       <c r="Y74" s="13">
-        <v>224522472</v>
+        <v>260202177</v>
       </c>
       <c r="Z74" s="13">
-        <v>236582979</v>
+        <v>311410188</v>
       </c>
       <c r="AA74" s="13">
-        <v>331000000</v>
+        <v>286498317</v>
       </c>
       <c r="AB74" s="13">
-        <v>260202177</v>
+        <v>280678474</v>
       </c>
       <c r="AC74" s="13">
-        <v>311410188</v>
+        <v>230475535</v>
       </c>
       <c r="AD74" s="13">
-        <v>286498317</v>
+        <v>304509186</v>
       </c>
       <c r="AE74" s="13">
-        <v>280678474</v>
+        <v>371094293</v>
       </c>
       <c r="AF74" s="13">
-        <v>230475535</v>
+        <v>387506696</v>
       </c>
       <c r="AG74" s="13">
-        <v>304509186</v>
+        <v>311071856</v>
       </c>
       <c r="AH74" s="13">
-        <v>371094293</v>
+        <v>358847134</v>
       </c>
       <c r="AI74" s="13">
-        <v>387506696</v>
+        <v>373393701</v>
       </c>
       <c r="AJ74" s="13">
-        <v>311071856</v>
+        <v>437075843</v>
       </c>
       <c r="AK74" s="13">
-        <v>358847134</v>
+        <v>629357616</v>
       </c>
       <c r="AL74" s="13">
-        <v>373393701</v>
+        <v>629613445</v>
       </c>
       <c r="AM74" s="13">
-        <v>437075843</v>
+        <v>628134615</v>
       </c>
       <c r="AN74" s="13">
-        <v>629357616</v>
+        <v>593308725</v>
       </c>
       <c r="AO74" s="13">
-        <v>629613445</v>
+        <v>670205339</v>
       </c>
       <c r="AP74" s="13">
-        <v>628134615</v>
+        <v>692120879</v>
       </c>
       <c r="AQ74" s="13">
-        <v>593308725</v>
+        <v>1116744048</v>
       </c>
       <c r="AR74" s="13">
-        <v>670205339</v>
+        <v>779286385</v>
       </c>
       <c r="AS74" s="13">
-        <v>692120879</v>
+        <v>788145963</v>
       </c>
       <c r="AT74" s="13">
-        <v>1116744048</v>
+        <v>848824701</v>
       </c>
       <c r="AU74" s="13">
-        <v>779286385</v>
+        <v>827923684</v>
       </c>
       <c r="AV74" s="13">
-        <v>788145963</v>
+        <v>1094031792</v>
       </c>
       <c r="AW74" s="13">
-        <v>848824701</v>
+        <v>1506746929</v>
       </c>
       <c r="AX74" s="13">
-        <v>827923684</v>
+        <v>896340625</v>
       </c>
       <c r="AY74" s="13">
-        <v>1094031792</v>
+        <v>879212903</v>
       </c>
       <c r="AZ74" s="13">
-        <v>1506746929</v>
+        <v>892385321</v>
       </c>
       <c r="BA74" s="13">
-        <v>896340625</v>
+        <v>1115992593</v>
       </c>
       <c r="BB74" s="13">
-        <v>915012903</v>
+        <v>2279789474</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="F75" s="9">
-        <v>0</v>
+        <v>32000000</v>
       </c>
       <c r="G75" s="9">
-        <v>0</v>
+        <v>57000000</v>
       </c>
       <c r="H75" s="9">
-        <v>3000000</v>
+        <v>1712100000</v>
       </c>
       <c r="I75" s="9">
-        <v>32000000</v>
-      </c>
-      <c r="J75" s="9">
-        <v>57000000</v>
-      </c>
-      <c r="K75" s="9">
-        <v>1712100000</v>
-      </c>
-      <c r="L75" s="9">
         <v>281600000</v>
       </c>
+      <c r="J75" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="M75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -9180,154 +9180,154 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
-        <v>74301887</v>
+        <v>42076923</v>
       </c>
       <c r="F76" s="13">
-        <v>148400000</v>
+        <v>48900000</v>
       </c>
       <c r="G76" s="13">
-        <v>0</v>
+        <v>28739130</v>
       </c>
       <c r="H76" s="13">
-        <v>42076923</v>
+        <v>0</v>
       </c>
       <c r="I76" s="13">
-        <v>48900000</v>
-      </c>
-      <c r="J76" s="13">
-        <v>28739130</v>
-      </c>
-      <c r="K76" s="13">
-        <v>0</v>
-      </c>
-      <c r="L76" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="M76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB76" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -9339,10 +9339,10 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>88690909</v>
+        <v>0</v>
       </c>
       <c r="F77" s="9">
-        <v>86966418</v>
+        <v>0</v>
       </c>
       <c r="G77" s="9">
         <v>0</v>
@@ -9350,143 +9350,143 @@
       <c r="H77" s="9">
         <v>0</v>
       </c>
-      <c r="I77" s="9">
-        <v>0</v>
-      </c>
-      <c r="J77" s="9">
-        <v>0</v>
-      </c>
-      <c r="K77" s="9">
-        <v>0</v>
+      <c r="I77" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB77" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -9498,10 +9498,10 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>126563492</v>
+        <v>0</v>
       </c>
       <c r="F78" s="13">
-        <v>136171642</v>
+        <v>0</v>
       </c>
       <c r="G78" s="13">
         <v>0</v>
@@ -9509,143 +9509,143 @@
       <c r="H78" s="13">
         <v>0</v>
       </c>
-      <c r="I78" s="13">
-        <v>0</v>
-      </c>
-      <c r="J78" s="13">
-        <v>0</v>
-      </c>
-      <c r="K78" s="13">
-        <v>0</v>
+      <c r="I78" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="L78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB78" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -9657,10 +9657,10 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>106448087</v>
+        <v>0</v>
       </c>
       <c r="F79" s="9">
-        <v>103573333</v>
+        <v>0</v>
       </c>
       <c r="G79" s="9">
         <v>0</v>
@@ -9668,143 +9668,143 @@
       <c r="H79" s="9">
         <v>0</v>
       </c>
-      <c r="I79" s="9">
-        <v>0</v>
-      </c>
-      <c r="J79" s="9">
-        <v>0</v>
-      </c>
-      <c r="K79" s="9">
-        <v>0</v>
+      <c r="I79" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AZ79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB79" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -9866,44 +9866,44 @@
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N81" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O81" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="M81" s="9">
+        <v>0</v>
+      </c>
+      <c r="N81" s="9">
+        <v>0</v>
+      </c>
+      <c r="O81" s="9">
+        <v>0</v>
       </c>
       <c r="P81" s="9">
         <v>0</v>
@@ -10464,154 +10464,154 @@
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW88" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX88" s="13">
-        <v>128493</v>
+        <v>137637</v>
       </c>
       <c r="AY88" s="13">
-        <v>100698</v>
+        <v>149796</v>
       </c>
       <c r="AZ88" s="13">
-        <v>105105</v>
+        <v>172805</v>
       </c>
       <c r="BA88" s="13">
-        <v>137637</v>
+        <v>145728</v>
       </c>
       <c r="BB88" s="13">
-        <v>149796</v>
+        <v>150723</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -10623,154 +10623,154 @@
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW89" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX89" s="9">
-        <v>4300</v>
+        <v>7030</v>
       </c>
       <c r="AY89" s="9">
-        <v>4666</v>
+        <v>7030</v>
       </c>
       <c r="AZ89" s="9">
-        <v>3550</v>
+        <v>7125</v>
       </c>
       <c r="BA89" s="9">
-        <v>7030</v>
+        <v>9375</v>
       </c>
       <c r="BB89" s="9">
-        <v>7030</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -10915,19 +10915,19 @@
         <v>0</v>
       </c>
       <c r="AX90" s="15">
-        <v>132793</v>
+        <v>144667</v>
       </c>
       <c r="AY90" s="15">
-        <v>105364</v>
+        <v>156826</v>
       </c>
       <c r="AZ90" s="15">
-        <v>108655</v>
+        <v>179930</v>
       </c>
       <c r="BA90" s="15">
-        <v>144667</v>
+        <v>155103</v>
       </c>
       <c r="BB90" s="15">
-        <v>156826</v>
+        <v>160098</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -11371,154 +11371,154 @@
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW97" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX97" s="13">
-        <v>21200</v>
+        <v>20241</v>
       </c>
       <c r="AY97" s="13">
-        <v>21618</v>
+        <v>21964</v>
       </c>
       <c r="AZ97" s="13">
-        <v>21025</v>
+        <v>24778</v>
       </c>
       <c r="BA97" s="13">
-        <v>20241</v>
+        <v>26023</v>
       </c>
       <c r="BB97" s="13">
-        <v>21964</v>
+        <v>25121</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -11530,154 +11530,154 @@
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW98" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX98" s="9">
-        <v>250000</v>
+        <v>190000</v>
       </c>
       <c r="AY98" s="9">
-        <v>250000</v>
+        <v>190000</v>
       </c>
       <c r="AZ98" s="9">
         <v>190000</v>
       </c>
       <c r="BA98" s="9">
-        <v>190000</v>
+        <v>250000</v>
       </c>
       <c r="BB98" s="9">
-        <v>190000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -12121,154 +12121,154 @@
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW105" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX105" s="13">
-        <v>6060991</v>
+        <v>6799911</v>
       </c>
       <c r="AY105" s="13">
-        <v>4658063</v>
+        <v>6820069</v>
       </c>
       <c r="AZ105" s="13">
-        <v>4999049</v>
+        <v>6974130</v>
       </c>
       <c r="BA105" s="13">
-        <v>6799911</v>
+        <v>5599969</v>
       </c>
       <c r="BB105" s="13">
-        <v>6820069</v>
+        <v>5999881</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.3">
@@ -12280,154 +12280,154 @@
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AJ106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AN106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AR106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AT106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AV106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW106" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AX106" s="9">
-        <v>17200</v>
+        <v>37000</v>
       </c>
       <c r="AY106" s="9">
-        <v>18664</v>
+        <v>37000</v>
       </c>
       <c r="AZ106" s="9">
-        <v>18684</v>
+        <v>37500</v>
       </c>
       <c r="BA106" s="9">
-        <v>37000</v>
+        <v>37500</v>
       </c>
       <c r="BB106" s="9">
-        <v>37000</v>
+        <v>37500</v>
       </c>
     </row>
   </sheetData>
